--- a/app/excel/1995/1995-01-25.xlsx
+++ b/app/excel/1995/1995-01-25.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="1995-01-25" state="visible" r:id="rId4"/>
+    <sheet name="1995-01-25" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -139,9 +142,6 @@
     <t>36 496 Dozen Bottles Were Distributed Firm Estimates None Remains On Market</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Preparation H Hemorrhoidal Suppositories Otc Rectal Vasoconstrictor Suppository In 12 24 36 And 48 Count Cartons</t>
   </si>
   <si>
@@ -494,19 +494,22 @@
   </si>
   <si>
     <t>A 64 629 Vials B 5 908 Packages Were Distributed</t>
+  </si>
+  <si>
+    <t>not-found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -559,44 +562,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -626,12 +629,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -670,208 +673,154 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1059,10 +1008,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -1074,10 +1023,10 @@
         <v>27</v>
       </c>
       <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
         <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -1094,25 +1043,25 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -1129,28 +1078,28 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>56</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>57</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1158,34 +1107,34 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
         <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
       <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
         <v>63</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>64</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>65</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1193,34 +1142,34 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
         <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
       <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
         <v>70</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>72</v>
       </c>
-      <c r="J10" t="s">
-        <v>73</v>
-      </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1228,34 +1177,34 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
         <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
         <v>76</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>77</v>
       </c>
-      <c r="J11" t="s">
-        <v>78</v>
-      </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1263,34 +1212,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
         <v>79</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>80</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>81</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>82</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>83</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>85</v>
-      </c>
-      <c r="K12" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1298,31 +1247,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>88</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>89</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
         <v>90</v>
       </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>91</v>
-      </c>
-      <c r="J13" t="s">
-        <v>92</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -1333,34 +1282,34 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
         <v>93</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
       <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
         <v>95</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>96</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>97</v>
       </c>
-      <c r="J14" t="s">
-        <v>98</v>
-      </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1368,34 +1317,34 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
         <v>99</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>100</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>101</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>102</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>103</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>104</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>105</v>
-      </c>
-      <c r="K15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1403,34 +1352,34 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
         <v>107</v>
-      </c>
-      <c r="E16" t="s">
-        <v>108</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
       <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" t="s">
         <v>109</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>110</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>111</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>112</v>
-      </c>
-      <c r="K16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1438,34 +1387,34 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
         <v>114</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>115</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>116</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>117</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>118</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>119</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1473,31 +1422,31 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
         <v>122</v>
-      </c>
-      <c r="E18" t="s">
-        <v>123</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
       </c>
       <c r="G18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" t="s">
         <v>124</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>125</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>126</v>
-      </c>
-      <c r="J18" t="s">
-        <v>127</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -1508,31 +1457,31 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
         <v>128</v>
-      </c>
-      <c r="E19" t="s">
-        <v>129</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
       </c>
       <c r="G19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" t="s">
         <v>130</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>131</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>132</v>
-      </c>
-      <c r="J19" t="s">
-        <v>133</v>
       </c>
       <c r="K19" t="s">
         <v>21</v>
@@ -1543,34 +1492,34 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
         <v>134</v>
-      </c>
-      <c r="E20" t="s">
-        <v>135</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
       <c r="G20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" t="s">
         <v>136</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>137</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" t="s">
         <v>138</v>
-      </c>
-      <c r="J20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1578,34 +1527,34 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
         <v>140</v>
-      </c>
-      <c r="E21" t="s">
-        <v>141</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" t="s">
         <v>142</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>143</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>144</v>
-      </c>
-      <c r="K21" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1613,34 +1562,34 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
       <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" t="s">
         <v>146</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>147</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>148</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>149</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>150</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>151</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1648,38 +1597,38 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" t="s">
         <v>154</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>155</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>156</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>157</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>158</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>159</v>
       </c>
-      <c r="J23" t="s">
-        <v>160</v>
-      </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>